--- a/Case/case1.xlsx
+++ b/Case/case1.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F0F60E62-DB40-4BFA-906F-932E1B6AFBD7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5189D1EF-7D49-45D0-8197-8AE5BA71B84D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>用例ID</t>
   </si>
@@ -46,22 +46,10 @@
     <t>图灵api接口</t>
   </si>
   <si>
-    <t>aaaa</t>
-  </si>
-  <si>
     <t>{'password':'1222'}</t>
   </si>
   <si>
-    <t>http://www.tuling123.com/openapi/api</t>
-  </si>
-  <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>code=40001</t>
-  </si>
-  <si>
-    <t>dfeb1cc8125943d29764a2f2f5c33739</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.tuling123.com/openapi/api
@@ -78,6 +66,45 @@
   </si>
   <si>
     <t>GET</t>
+  </si>
+  <si>
+    <t>http://api.douban.com/v2/movie/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total=53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'q':'张艺谋','count':'1'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://igame.163.com/api/nuser/follow/users/simple/get</t>
+  </si>
+  <si>
+    <t>code=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易云音乐获取获取用户关注列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'MUSIC_U':'5b7ff2869c4c1d1605c2778f8fb6e6cae1366b2a76a0e27a682e1dfb2939f587ff5b00ac1da1e1b00a503af9397a6e73b364371d53e6ed77'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -120,11 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,16 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -445,25 +477,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -471,19 +503,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -491,19 +523,45 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Case/case1.xlsx
+++ b/Case/case1.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5189D1EF-7D49-45D0-8197-8AE5BA71B84D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D764D77A-7D5B-4992-BE52-1866B810CF43}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>用例ID</t>
   </si>
@@ -436,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E8:E9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,7 +446,7 @@
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
     <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,4 +570,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EE55AF-44AE-4552-947C-B68519C4179B}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>